--- a/academias/Química - Estadisticos 20211.xlsx
+++ b/academias/Química - Estadisticos 20211.xlsx
@@ -510,22 +510,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>58.97</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>41.03</v>
+      </c>
+      <c r="I2">
+        <v>8.1</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,22 +545,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>31.82</v>
+      </c>
+      <c r="I3">
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,22 +580,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>18.6</v>
+      </c>
+      <c r="I4">
+        <v>8.199999999999999</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,22 +615,25 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>35.71</v>
+      </c>
+      <c r="I5">
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -638,22 +650,25 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I6">
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -810,22 +825,25 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I11">
+        <v>8.800000000000001</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1333,22 +1351,25 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>58.97</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>41.03</v>
+      </c>
+      <c r="I2">
+        <v>8.1</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1365,22 +1386,25 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>31.82</v>
+      </c>
+      <c r="I3">
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1397,22 +1421,25 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>18.6</v>
+      </c>
+      <c r="I4">
+        <v>8.199999999999999</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1429,22 +1456,25 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>35.71</v>
+      </c>
+      <c r="I5">
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1461,22 +1491,25 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I6">
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1633,22 +1666,25 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I11">
+        <v>8.800000000000001</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/academias/Química - Estadisticos 20211.xlsx
+++ b/academias/Química - Estadisticos 20211.xlsx
@@ -507,28 +507,28 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
       <c r="I2">
         <v>8.1</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -647,28 +647,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H6">
-        <v>16.67</v>
+        <v>28.57</v>
       </c>
       <c r="I6">
         <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>16.67</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,28 +787,28 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>35</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>79.55</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H10">
-        <v>20.45</v>
+        <v>18.6</v>
       </c>
       <c r="I10">
         <v>8.1</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>20.45</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -944,13 +944,13 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -1072,13 +1072,13 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1200,13 +1200,13 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>100</v>
@@ -1348,28 +1348,28 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
       <c r="I2">
         <v>8.1</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1488,28 +1488,28 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H6">
-        <v>16.67</v>
+        <v>28.57</v>
       </c>
       <c r="I6">
         <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>16.67</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1628,28 +1628,28 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>35</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>79.55</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H10">
-        <v>20.45</v>
+        <v>18.6</v>
       </c>
       <c r="I10">
         <v>8.1</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>20.45</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/academias/Química - Estadisticos 20211.xlsx
+++ b/academias/Química - Estadisticos 20211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>Docente</t>
   </si>
@@ -57,9 +57,6 @@
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Saucedo Rivalcoba Graciela</t>
-  </si>
-  <si>
     <t>1AV</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
     <t>1EV</t>
   </si>
   <si>
+    <t>1AM</t>
+  </si>
+  <si>
     <t>1BM</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>1FM</t>
-  </si>
-  <si>
-    <t>1AM</t>
   </si>
   <si>
     <t>QUÍMICA I</t>
@@ -501,10 +498,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -536,10 +533,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -571,10 +568,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>43</v>
@@ -606,10 +603,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>28</v>
@@ -641,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -676,34 +673,34 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>74.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H7">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +708,34 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>91.67</v>
+        <v>74.19</v>
       </c>
       <c r="H8">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +743,34 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>74.42</v>
+        <v>91.67</v>
       </c>
       <c r="H9">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
       <c r="I9">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +778,34 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>81.40000000000001</v>
+        <v>74.42</v>
       </c>
       <c r="H10">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
       <c r="I10">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,69 +813,69 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>83.33</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H11">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>82.34999999999999</v>
+        <v>83.33</v>
       </c>
       <c r="H12">
-        <v>17.65</v>
+        <v>16.67</v>
       </c>
       <c r="I12">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>17.65</v>
+        <v>16.67</v>
       </c>
     </row>
   </sheetData>
@@ -938,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -970,10 +967,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -1002,10 +999,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>43</v>
@@ -1034,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>28</v>
@@ -1066,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -1098,19 +1095,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1119,7 +1116,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -1130,19 +1127,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1151,7 +1148,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -1162,19 +1159,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1183,7 +1180,7 @@
         <v>100</v>
       </c>
       <c r="J9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -1194,10 +1191,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -1226,19 +1223,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1247,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -1255,22 +1252,22 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -1342,10 +1339,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -1377,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -1412,10 +1409,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>43</v>
@@ -1447,10 +1444,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>28</v>
@@ -1482,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>21</v>
@@ -1517,34 +1514,34 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>74.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H7">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>25.81</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1552,34 +1549,34 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>91.67</v>
+        <v>74.19</v>
       </c>
       <c r="H8">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>8.33</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1587,34 +1584,34 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>74.42</v>
+        <v>91.67</v>
       </c>
       <c r="H9">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
       <c r="I9">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>25.58</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1622,34 +1619,34 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>43</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>81.40000000000001</v>
+        <v>74.42</v>
       </c>
       <c r="H10">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
       <c r="I10">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>18.6</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1657,69 +1654,69 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>83.33</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H11">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>16.67</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>82.34999999999999</v>
+        <v>83.33</v>
       </c>
       <c r="H12">
-        <v>17.65</v>
+        <v>16.67</v>
       </c>
       <c r="I12">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>17.65</v>
+        <v>16.67</v>
       </c>
     </row>
   </sheetData>
